--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D303581D-5C0D-4186-9F6D-5C2B1F621325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{284A2D40-DC15-45E1-B888-62B47FBEBFBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8C3B6-67C2-4E2D-9D72-EC7FA8E7965D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
   <si>
     <t>Website</t>
   </si>
@@ -99,12 +99,6 @@
     <t>picklist</t>
   </si>
   <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
     <t>custom 2</t>
   </si>
   <si>
@@ -114,15 +108,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -216,6 +198,39 @@
     <t>this is a note</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Enter the name of the master-template here]</t>
+    </r>
+  </si>
+  <si>
     <t>Created on (Date)</t>
   </si>
   <si>
@@ -240,18 +255,12 @@
     <t>MS D: Custom Entity</t>
   </si>
   <si>
-    <t>Export-Type</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>WebSiteURL</t>
-  </si>
-  <si>
     <t>Template-ID</t>
   </si>
   <si>
@@ -259,13 +268,16 @@
   </si>
   <si>
     <t>Time of creation</t>
+  </si>
+  <si>
+    <t>WebsiteURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +323,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -321,6 +340,13 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -431,47 +457,358 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color theme="0"/>
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
       </left>
       <right/>
       <top style="thick">
-        <color theme="0"/>
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="0"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color theme="0"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="0"/>
       </right>
@@ -480,87 +817,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -569,7 +867,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -578,281 +876,14 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,101 +895,6 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
@@ -1283,14 +1219,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1298,178 +1320,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,7 +1499,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -1534,94 +1554,6 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1862,18 +1794,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF9DA600"/>
       <color rgb="FFB4C6E7"/>
       <color rgb="FF001E51"/>
+      <color rgb="FF9DA600"/>
       <color rgb="FFFE6C36"/>
       <color rgb="FFFEFFE1"/>
     </mruColors>
@@ -1895,13 +1827,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2355,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,9 +2310,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>30</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2389,839 +2321,832 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="42"/>
-      <c r="K2" s="42"/>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="28" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="G4" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="O4" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="S4" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95"/>
+      <c r="W4" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="98"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="49"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="49"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="65"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="G3" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="O3" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="S3" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="98"/>
-      <c r="W3" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="101"/>
-    </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="56"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="56"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="74"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="74"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="33"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="56"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="8" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="G8" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="56"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="56"/>
-      <c r="S8" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="74"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="49"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="49"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="65"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="57" t="s">
-        <v>4</v>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="57" t="s">
-        <v>4</v>
+      <c r="K9" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="57"/>
+        <v>3</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="48"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="58"/>
-      <c r="S9" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" s="75"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="74"/>
+      <c r="Q9" s="49"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="58" t="s">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="58" t="s">
+      <c r="K10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="58"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="74"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="74"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="51"/>
+      <c r="S10" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="65"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="58" t="s">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="30"/>
+      <c r="G11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="58" t="s">
+      <c r="K11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="58"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="74"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="74"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="51"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="65"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="58" t="s">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="30"/>
+      <c r="G12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="58"/>
-      <c r="O12" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="58" t="s">
+      <c r="K12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="75"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="74"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="74"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="51"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="65"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="30"/>
+      <c r="G13" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="51"/>
+      <c r="O13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="66"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="65"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="65"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="55" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="30"/>
+      <c r="G14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="58" t="s">
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="55" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="58" t="s">
+      <c r="L14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="55" t="s">
+      <c r="O14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="58" t="s">
+      <c r="P14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="74"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="74"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="65"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="65"/>
     </row>
-    <row r="14" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+    <row r="15" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="G14" s="59" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="G15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="58" t="s">
+      <c r="H15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="59" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="58" t="s">
+      <c r="L15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="58"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="77"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="77"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="75"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="74"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="74"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="51"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="68"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="68"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="58" t="s">
+      <c r="A16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="30"/>
+      <c r="G16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="58" t="s">
+      <c r="K16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="57"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="58"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="72"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="74"/>
+      <c r="O16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="66"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="65"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="65"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="58" t="s">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="30"/>
+      <c r="G17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="58" t="s">
+      <c r="K17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="75"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="74"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="74"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="51"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="63"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="65"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="58" t="s">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="30"/>
+      <c r="G18" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="58" t="s">
+      <c r="K18" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="58" t="s">
+      <c r="O18" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="74"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="74"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="65"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="65"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="66"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="65"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="65"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="34"/>
-      <c r="G19" s="57" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="30"/>
+      <c r="G20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="58" t="s">
+      <c r="H20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="57" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="58" t="s">
+      <c r="L20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="57" t="s">
+      <c r="O20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="58" t="s">
+      <c r="P20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="74"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="74"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="65"/>
     </row>
-    <row r="20" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="G20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="58" t="s">
+    <row r="21" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="G21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="58" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="58" t="s">
+      <c r="O21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S20" s="76"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="77"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="77"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="74"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="74"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="68"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="68"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="58" t="s">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="30"/>
+      <c r="G22" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="56"/>
-      <c r="O22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="58" t="s">
+      <c r="K22" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="69"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="70"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="70"/>
+      <c r="O22" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="66"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="65"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="56"/>
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="56" t="s">
+      <c r="K23" s="48"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="49"/>
+      <c r="O23" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="55"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="56"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="70"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="70"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="61"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="61"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="35"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="63"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="80"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="80"/>
+      <c r="K24" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="48"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="49"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="61"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="61"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="8"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="9"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="9"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="65"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="9"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="71"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="71"/>
     </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3229,351 +3154,340 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="54" t="s">
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="54" t="s">
+      <c r="K27" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="54" t="s">
+      <c r="O27" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" s="68" t="s">
+      <c r="S27" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="W27" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y27" s="68" t="s">
+      <c r="W27" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="30"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="58"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="58"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="58"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="74"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="74"/>
+      <c r="A28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="26"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="51"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="51"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="51"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="65"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="65"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="31"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="58"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="58"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="58"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="74"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="74"/>
+      <c r="A29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="27"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="51"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="51"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="65"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="65"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="58"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="58"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="58"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="74"/>
-      <c r="W30" s="75"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="74"/>
+      <c r="A30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="27"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="51"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="51"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="51"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="65"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="65"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="58"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="58"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="58"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="74"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="74"/>
+      <c r="A31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="27"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="51"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="51"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="51"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="65"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="65"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="58"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="58"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="74"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="74"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="27"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="51"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="51"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="51"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="65"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="65"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="58"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="58"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="58"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="74"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="74"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="27"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="51"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="51"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="65"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="65"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="58"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="58"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="58"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="74"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="74"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="27"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="51"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="51"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="65"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="65"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="31"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="58"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="58"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="58"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="74"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="74"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="27"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="51"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="51"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="51"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="65"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="65"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="31"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="58"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="58"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="58"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="74"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="74"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="27"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="51"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="51"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="51"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="65"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="65"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="31"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="58"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="58"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="58"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="74"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="74"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="27"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="51"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="51"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="51"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="65"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="65"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="32"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="63"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="80"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="80"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="28"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="56"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="56"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="71"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="71"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S3:Y38" name="customEntities"/>
+    <protectedRange sqref="S26:Y38 S4:Y25" name="customEntities"/>
     <protectedRange sqref="A28:A32" name="Questionnaire_3"/>
-    <protectedRange sqref="B8:B12" name="Contact Fields_2"/>
+    <protectedRange sqref="B10:B13" name="Contact Fields_2"/>
     <protectedRange sqref="A33:Y38 E28:Y32" name="Questionnaire"/>
-    <protectedRange sqref="A6:R7 A24:Y24 B23:Y23 B13:H22 C9:H12 C8:R8 I9:Y22 S6:Y8" name="Contact Fields"/>
+    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 A7:Y9 I10:Y23" name="Contact Fields"/>
+    <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="B28:D32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
@@ -3586,124 +3500,92 @@
     <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 A24:AG25 M12:P22 M9:AG11 N8:R8 C8:J8 Z8:AG8 R12:AG22 V8">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 M13:P23 M10:AG12 R13:AG23 W7:Y9 A25:AG25">
+    <cfRule type="expression" dxfId="19" priority="31">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="32">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:Y38">
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="16" priority="30">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U38">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:Q38">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M38">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I38">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="8" priority="22">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A23">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="A10:A24 B10:B13">
+    <cfRule type="expression" dxfId="7" priority="19">
+      <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="Q13:Q23">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q22">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C12="x"</formula>
+  <conditionalFormatting sqref="L10:L23">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D12="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L22">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C9="x"</formula>
+  <conditionalFormatting sqref="S7:U9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:Y8">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:U7">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Y38 U28:U38 Q28:Q38 M28:M38 I28:I38 U7:U25 I7:I25 Y7:Y25 Q7:Q25 M7:M25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 Q6:Q24 Y6:Y24 I6:I24 Y28:Y38 U28:U38 Q28:Q38 M28:M38 I28:I38 U6:U24" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3713,6 +3595,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3721,7 +3609,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3930,13 +3818,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3944,7 +3843,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3961,21 +3860,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8C3B6-67C2-4E2D-9D72-EC7FA8E7965D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F643A4-985A-493C-BAE5-80694DA5315D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{C3D31C53-13A5-4784-AB96-9FBF6405AE6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{0098B9E8-AEE6-40E6-8F82-336E2D3F6C7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
   <si>
@@ -249,12 +287,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>MS D: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>MS D: Custom Entity</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -271,13 +303,19 @@
   </si>
   <si>
     <t>WebsiteURL</t>
+  </si>
+  <si>
+    <t>MS D: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>MS D: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +397,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -404,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1303,6 +1348,21 @@
       </top>
       <bottom style="thick">
         <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFFE1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,10 +1503,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1464,36 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,11 +1863,11 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFEFFE1"/>
       <color rgb="FFB4C6E7"/>
       <color rgb="FF001E51"/>
       <color rgb="FF9DA600"/>
       <color rgb="FFFE6C36"/>
-      <color rgb="FFFEFFE1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2284,11 +2344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,32 +2408,32 @@
         <v>60</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="O4" s="99" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="O4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="S4" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="W4" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="98"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="S4" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="85"/>
+      <c r="U4" s="86"/>
+      <c r="W4" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2383,7 +2443,7 @@
       <c r="B6" s="80"/>
       <c r="C6" s="44"/>
       <c r="D6" s="79"/>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -2458,17 +2518,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="77"/>
       <c r="D8" s="78"/>
       <c r="E8" s="29"/>
       <c r="G8" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>19</v>
@@ -2711,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="51" t="s">
         <v>19</v>
@@ -3154,7 +3214,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3216,11 +3276,11 @@
       <c r="A28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
+      <c r="B28" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="26"/>
       <c r="G28" s="50"/>
       <c r="H28" s="4"/>
@@ -3242,11 +3302,11 @@
       <c r="A29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="27"/>
       <c r="G29" s="50"/>
       <c r="H29" s="4"/>
@@ -3268,11 +3328,11 @@
       <c r="A30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="27"/>
       <c r="G30" s="50"/>
       <c r="H30" s="4"/>
@@ -3294,11 +3354,11 @@
       <c r="A31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="27"/>
       <c r="G31" s="50"/>
       <c r="H31" s="4"/>
@@ -3318,9 +3378,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="27"/>
       <c r="G32" s="50"/>
       <c r="H32" s="4"/>
@@ -3362,9 +3422,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="27"/>
       <c r="G34" s="50"/>
       <c r="H34" s="4"/>
@@ -3384,9 +3444,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="27"/>
       <c r="G35" s="50"/>
       <c r="H35" s="4"/>
@@ -3406,9 +3466,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="27"/>
       <c r="G36" s="50"/>
       <c r="H36" s="4"/>
@@ -3428,9 +3488,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="27"/>
       <c r="G37" s="50"/>
       <c r="H37" s="4"/>
@@ -3450,9 +3510,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="28"/>
       <c r="G38" s="54"/>
       <c r="H38" s="55"/>
@@ -3483,21 +3543,21 @@
     <protectedRange sqref="B28:D32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 M13:P23 M10:AG12 R13:AG23 W7:Y9 A25:AG25">
@@ -3581,35 +3641,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Y38 U28:U38 Q28:Q38 M28:M38 I28:I38 U7:U25 I7:I25 Y7:Y25 Q7:Q25 M7:M25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I28:I38" xr:uid="{8059C0DB-9476-422A-A9C8-7796817D3F74}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3818,32 +3864,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3860,4 +3896,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F643A4-985A-493C-BAE5-80694DA5315D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34003A1-94BE-43E9-B41C-4C4DA8833EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -236,39 +236,6 @@
     <t>this is a note</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter the name of the master-template here]</t>
-    </r>
-  </si>
-  <si>
     <t>Created on (Date)</t>
   </si>
   <si>
@@ -309,13 +276,16 @@
   </si>
   <si>
     <t>MS D: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,13 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -378,13 +341,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1383,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1393,13 +1349,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1411,41 +1367,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1479,23 +1435,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1507,6 +1462,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1528,33 +1510,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2347,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,8 +2327,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>54</v>
+      <c r="A1" s="99" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2402,48 +2358,48 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="25"/>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="O4" s="90" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="O4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="S4" s="84" t="s">
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="S4" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="93"/>
+      <c r="U4" s="94"/>
+      <c r="W4" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="86"/>
-      <c r="W4" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="97"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="82" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -2518,17 +2474,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="29"/>
       <c r="G8" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="49" t="s">
         <v>19</v>
@@ -2554,8 +2510,8 @@
       <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="29"/>
       <c r="G9" s="48" t="s">
         <v>3</v>
@@ -2771,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="51" t="s">
         <v>19</v>
@@ -3214,7 +3170,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="81" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3274,13 +3230,13 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
+        <v>57</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="26"/>
       <c r="G28" s="50"/>
       <c r="H28" s="4"/>
@@ -3300,13 +3256,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="27"/>
       <c r="G29" s="50"/>
       <c r="H29" s="4"/>
@@ -3326,13 +3282,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="27"/>
       <c r="G30" s="50"/>
       <c r="H30" s="4"/>
@@ -3352,13 +3308,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="27"/>
       <c r="G31" s="50"/>
       <c r="H31" s="4"/>
@@ -3378,9 +3334,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="27"/>
       <c r="G32" s="50"/>
       <c r="H32" s="4"/>
@@ -3422,9 +3378,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="27"/>
       <c r="G34" s="50"/>
       <c r="H34" s="4"/>
@@ -3444,9 +3400,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="27"/>
       <c r="G35" s="50"/>
       <c r="H35" s="4"/>
@@ -3466,9 +3422,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="27"/>
       <c r="G36" s="50"/>
       <c r="H36" s="4"/>
@@ -3488,9 +3444,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="E37" s="27"/>
       <c r="G37" s="50"/>
       <c r="H37" s="4"/>
@@ -3510,9 +3466,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="28"/>
       <c r="G38" s="54"/>
       <c r="H38" s="55"/>
@@ -3543,21 +3499,21 @@
     <protectedRange sqref="B28:D32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 M13:P23 M10:AG12 R13:AG23 W7:Y9 A25:AG25">
@@ -3656,6 +3612,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3864,22 +3835,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3896,29 +3877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34003A1-94BE-43E9-B41C-4C4DA8833EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E13BAE3-EA18-4DF0-926E-2AA8071CBDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Enter "x", if the field must be filled</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Enter "x", if the field is not used</t>
         </r>
@@ -358,7 +358,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -405,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1208,19 +1208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -1326,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1450,17 +1437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1480,42 +1495,209 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1810,11 +1992,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2303,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2509,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="1"/>
@@ -2364,42 +2546,42 @@
         <v>59</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="O4" s="98" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="O4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="S4" s="92" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="S4" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="W4" s="95" t="s">
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="W4" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="97"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="88"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="82" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -2478,24 +2660,24 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="29"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="49"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="51"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="51"/>
       <c r="S8" s="66"/>
       <c r="T8" s="4"/>
       <c r="U8" s="65"/>
@@ -2511,30 +2693,30 @@
         <v>53</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="29"/>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="51" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="51"/>
       <c r="S9" s="66"/>
       <c r="T9" s="4"/>
       <c r="U9" s="65"/>
@@ -3170,7 +3352,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -3232,11 +3414,11 @@
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="26"/>
       <c r="G28" s="50"/>
       <c r="H28" s="4"/>
@@ -3258,11 +3440,11 @@
       <c r="A29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="27"/>
       <c r="G29" s="50"/>
       <c r="H29" s="4"/>
@@ -3284,15 +3466,15 @@
       <c r="A30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="27"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="49"/>
       <c r="K30" s="50"/>
       <c r="L30" s="4"/>
       <c r="M30" s="51"/>
@@ -3310,18 +3492,18 @@
       <c r="A31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="27"/>
       <c r="G31" s="50"/>
       <c r="H31" s="4"/>
       <c r="I31" s="51"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="51"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="49"/>
       <c r="O31" s="50"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="51"/>
@@ -3334,9 +3516,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="27"/>
       <c r="G32" s="50"/>
       <c r="H32" s="4"/>
@@ -3378,9 +3560,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="27"/>
       <c r="G34" s="50"/>
       <c r="H34" s="4"/>
@@ -3400,9 +3582,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="27"/>
       <c r="G35" s="50"/>
       <c r="H35" s="4"/>
@@ -3422,9 +3604,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="27"/>
       <c r="G36" s="50"/>
       <c r="H36" s="4"/>
@@ -3444,9 +3626,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="27"/>
       <c r="G37" s="50"/>
       <c r="H37" s="4"/>
@@ -3466,9 +3648,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="28"/>
       <c r="G38" s="54"/>
       <c r="H38" s="55"/>
@@ -3490,117 +3672,181 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S26:Y38 S4:Y25" name="customEntities"/>
+    <protectedRange sqref="S4:Y38" name="customEntities"/>
     <protectedRange sqref="A28:A32" name="Questionnaire_3"/>
     <protectedRange sqref="B10:B13" name="Contact Fields_2"/>
-    <protectedRange sqref="A33:Y38 E28:Y32" name="Questionnaire"/>
-    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 A7:Y9 I10:Y23" name="Contact Fields"/>
+    <protectedRange sqref="A33:Y38 E28:Y29 E32:Y32 E31:J31 N31:Y31 E30:F30 J30:Y30" name="Questionnaire"/>
+    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 I10:Y23 K31:M31 G30:I30 A7:Y9" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="B28:D32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 M13:P23 M10:AG12 R13:AG23 W7:Y9 A25:AG25">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:Y38">
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="35" priority="47">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="34" priority="48">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:U38">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:Q38">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M38">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="K28:M30 K32:M38">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:I38">
-    <cfRule type="expression" dxfId="9" priority="21">
+  <conditionalFormatting sqref="G28:I29 G31:I38">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A24 B10:B13">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="20">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q23">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L23">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:U9">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:Q8">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:Q9">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M9">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I28:I38" xr:uid="{8059C0DB-9476-422A-A9C8-7796817D3F74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M25 Q7:Q25 I28:I38 U7:U25 Y7:Y25 U28:U38 Y28:Y38 Q28:Q38 M28:M38 I7:I25" xr:uid="{8059C0DB-9476-422A-A9C8-7796817D3F74}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3612,18 +3858,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3836,6 +4082,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3848,14 +4102,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E8C3B6-67C2-4E2D-9D72-EC7FA8E7965D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC2EF5-1D68-4C05-9BEA-46B083740C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$37,Specifications!$U$27:$U$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>Website</t>
   </si>
@@ -196,39 +196,6 @@
   </si>
   <si>
     <t>this is a note</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Enter the name of the master-template here]</t>
-    </r>
   </si>
   <si>
     <t>Created on (Date)</t>
@@ -277,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,13 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -340,13 +300,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1310,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1323,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1333,13 +1286,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1351,41 +1304,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1419,23 +1372,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1447,33 +1399,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1494,6 +1419,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1827,13 +1779,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1918,13 +1870,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2285,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,9 +2262,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>54</v>
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2321,127 +2273,147 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="36"/>
-      <c r="K3" s="36"/>
+    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="G3" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="O3" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="S3" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="84"/>
+      <c r="U3" s="85"/>
+      <c r="W3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="88"/>
     </row>
-    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="G4" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="O4" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="S4" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="W4" s="96" t="s">
+    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="49"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="49"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="65"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="65"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="98"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="29"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="49"/>
+      <c r="G7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="48"/>
       <c r="L7" s="5"/>
@@ -2458,25 +2430,33 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="29"/>
       <c r="G8" s="48" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="49"/>
+      <c r="K8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="48"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="49"/>
@@ -2489,66 +2469,70 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="30"/>
+      <c r="G9" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="49"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="65"/>
+      <c r="K9" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="51"/>
+      <c r="S9" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="W9" s="66"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="74"/>
       <c r="D10" s="19"/>
       <c r="E10" s="30"/>
       <c r="G10" s="50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>19</v>
@@ -2556,42 +2540,36 @@
       <c r="O10" s="50"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="51"/>
-      <c r="S10" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>31</v>
-      </c>
+      <c r="S10" s="66"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="65"/>
       <c r="W10" s="66"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="65"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="74"/>
       <c r="D11" s="19"/>
       <c r="E11" s="30"/>
       <c r="G11" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I11" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>19</v>
@@ -2608,34 +2586,34 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="74"/>
       <c r="D12" s="19"/>
       <c r="E12" s="30"/>
       <c r="G12" s="50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="51" t="s">
+      <c r="K12" s="50"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="51"/>
+      <c r="O12" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="51"/>
       <c r="S12" s="66"/>
       <c r="T12" s="4"/>
       <c r="U12" s="65"/>
@@ -2644,31 +2622,37 @@
       <c r="Y12" s="65"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14"/>
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="74"/>
       <c r="D13" s="19"/>
       <c r="E13" s="30"/>
-      <c r="G13" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>35</v>
+      <c r="G13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="51"/>
-      <c r="O13" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>14</v>
+      <c r="K13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>19</v>
@@ -2680,198 +2664,198 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="65"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="30"/>
-      <c r="G14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>36</v>
+    <row r="14" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="I14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>36</v>
+      <c r="J14" s="42"/>
+      <c r="K14" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="66"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="65"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="65"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="51"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="68"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="68"/>
     </row>
-    <row r="15" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="G15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>37</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="I15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>37</v>
+      <c r="J15" s="1"/>
+      <c r="K15" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="52"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="51"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="68"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="68"/>
+      <c r="O15" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="66"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="65"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="65"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="74"/>
       <c r="D16" s="19"/>
       <c r="E16" s="30"/>
-      <c r="G16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>38</v>
+      <c r="G16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>38</v>
+      <c r="K16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="66"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="65"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="51"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="63"/>
       <c r="W16" s="66"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="65"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="74"/>
       <c r="D17" s="19"/>
       <c r="E17" s="30"/>
       <c r="G17" s="50" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I17" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="50" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="51"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="63"/>
+      <c r="O17" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="66"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="65"/>
       <c r="W17" s="66"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="65"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="74"/>
       <c r="D18" s="19"/>
       <c r="E18" s="30"/>
       <c r="G18" s="50" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="50" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="50" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="51" t="s">
         <v>19</v>
@@ -2885,36 +2869,36 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="74"/>
       <c r="D19" s="19"/>
       <c r="E19" s="30"/>
       <c r="G19" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>19</v>
       </c>
       <c r="O19" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="51" t="s">
         <v>19</v>
@@ -2926,165 +2910,153 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="65"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>41</v>
+    <row r="20" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="G20" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>41</v>
+      <c r="J20" s="42"/>
+      <c r="K20" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="M20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>42</v>
+      <c r="O20" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="Q20" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S20" s="66"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="65"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="65"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="68"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="68"/>
     </row>
-    <row r="21" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="G21" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>42</v>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>42</v>
+      <c r="J21" s="1"/>
+      <c r="K21" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>41</v>
+      <c r="O21" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="Q21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="67"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="68"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="68"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="65"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="65"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
+      <c r="A22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="74"/>
       <c r="D22" s="19"/>
       <c r="E22" s="30"/>
-      <c r="G22" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>43</v>
+      <c r="G22" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>43</v>
+      <c r="K22" s="48"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="49"/>
+      <c r="O22" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="Q22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="66"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="65"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="65"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="61"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="61"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="74"/>
       <c r="D23" s="19"/>
       <c r="E23" s="30"/>
-      <c r="G23" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="51" t="s">
+      <c r="G23" s="48"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="49"/>
-      <c r="O23" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="51" t="s">
-        <v>19</v>
-      </c>
+      <c r="O23" s="48"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="49"/>
       <c r="S23" s="60"/>
       <c r="T23" s="5"/>
       <c r="U23" s="61"/>
@@ -3092,136 +3064,131 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="61"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="49"/>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="31"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="48"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="49"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="61"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="61"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="71"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="71"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="31"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="71"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="71"/>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="59" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="W27" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="X27" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="59" t="s">
-        <v>15</v>
-      </c>
+    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="26"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="51"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="51"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="65"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="65"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="90" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="27"/>
       <c r="G28" s="50"/>
       <c r="H28" s="4"/>
       <c r="I28" s="51"/>
@@ -3240,13 +3207,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="27"/>
       <c r="G29" s="50"/>
       <c r="H29" s="4"/>
@@ -3268,11 +3235,11 @@
       <c r="A30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="27"/>
       <c r="G30" s="50"/>
       <c r="H30" s="4"/>
@@ -3291,14 +3258,10 @@
       <c r="Y30" s="65"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="27"/>
       <c r="G31" s="50"/>
       <c r="H31" s="4"/>
@@ -3318,9 +3281,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="27"/>
       <c r="G32" s="50"/>
       <c r="H32" s="4"/>
@@ -3340,9 +3303,9 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="27"/>
       <c r="G33" s="50"/>
       <c r="H33" s="4"/>
@@ -3362,9 +3325,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="27"/>
       <c r="G34" s="50"/>
       <c r="H34" s="4"/>
@@ -3384,9 +3347,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="27"/>
       <c r="G35" s="50"/>
       <c r="H35" s="4"/>
@@ -3406,9 +3369,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="27"/>
       <c r="G36" s="50"/>
       <c r="H36" s="4"/>
@@ -3426,166 +3389,143 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="65"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="27"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="51"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="51"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="51"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="65"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="65"/>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="28"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="56"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="71"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="71"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="28"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="56"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="56"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="71"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="71"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S26:Y38 S4:Y25" name="customEntities"/>
-    <protectedRange sqref="A28:A32" name="Questionnaire_3"/>
-    <protectedRange sqref="B10:B13" name="Contact Fields_2"/>
-    <protectedRange sqref="A33:Y38 E28:Y32" name="Questionnaire"/>
-    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 A7:Y9 I10:Y23" name="Contact Fields"/>
-    <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="B28:D32" name="Questionnaire_2"/>
+    <protectedRange sqref="S25:Y37 S3:Y24" name="customEntities"/>
+    <protectedRange sqref="A27:A31" name="Questionnaire_3"/>
+    <protectedRange sqref="B9:B12" name="Contact Fields_2"/>
+    <protectedRange sqref="A32:Y37 E27:Y31" name="Questionnaire"/>
+    <protectedRange sqref="A24:Y24 B23:Y23 B13:H22 C9:H12 A6:Y8 I9:Y22" name="Contact Fields"/>
+    <protectedRange sqref="B27:D31" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 M13:P23 M10:AG12 R13:AG23 W7:Y9 A25:AG25">
+  <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 M12:P22 M9:AG11 R12:AG22 W6:Y8 A24:AG24">
     <cfRule type="expression" dxfId="19" priority="31">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="32">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28:Y38">
+  <conditionalFormatting sqref="W27:Y37">
     <cfRule type="expression" dxfId="17" priority="29">
-      <formula>$C28="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="30">
-      <formula>$D28="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:U38">
+  <conditionalFormatting sqref="S27:U37">
     <cfRule type="expression" dxfId="15" priority="27">
-      <formula>$C28="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="28">
-      <formula>$D28="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28:Q38">
+  <conditionalFormatting sqref="O27:Q37">
     <cfRule type="expression" dxfId="13" priority="25">
-      <formula>$C28="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="26">
-      <formula>$D28="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M38">
+  <conditionalFormatting sqref="K27:M37">
     <cfRule type="expression" dxfId="11" priority="23">
-      <formula>$C28="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="24">
-      <formula>$D28="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:I38">
+  <conditionalFormatting sqref="G27:I37">
     <cfRule type="expression" dxfId="9" priority="21">
-      <formula>$C28="x"</formula>
+      <formula>$C27="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="22">
-      <formula>$D28="x"</formula>
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A24 B10:B13">
+  <conditionalFormatting sqref="A9:A23 B9:B12">
     <cfRule type="expression" dxfId="7" priority="19">
-      <formula>$C10="x"</formula>
+      <formula>$C9="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="20">
-      <formula>$D10="x"</formula>
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q23">
+  <conditionalFormatting sqref="Q12:Q22">
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>$C13="x"</formula>
+      <formula>$C12="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>$D13="x"</formula>
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L23">
+  <conditionalFormatting sqref="L9:L22">
     <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$C10="x"</formula>
+      <formula>$C9="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>$D10="x"</formula>
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U9">
+  <conditionalFormatting sqref="S6:U8">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Y38 U28:U38 Q28:Q38 M28:M38 I28:I38 U7:U25 I7:I25 Y7:Y25 Q7:Q25 M7:M25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+      <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
-      <formula1>"x"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 Y27:Y37 U27:U36 U37 U6:U24 Q6:Q24 Q27:Q37 M27:M37 M6:M24 I6:I24 I27:I37" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3595,18 +3535,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3819,6 +3759,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3831,14 +3779,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC2EF5-1D68-4C05-9BEA-46B083740C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2DE3CE-8F03-4B66-91A1-A1EF0185AA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$37,Specifications!$U$27:$U$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$35,Specifications!$U$27:$U$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
   <si>
     <t>Website</t>
   </si>
@@ -195,21 +195,12 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>Created on (Date)</t>
   </si>
   <si>
     <t>Created by</t>
   </si>
   <si>
-    <t>VR title</t>
-  </si>
-  <si>
-    <t>Campaign-ID</t>
-  </si>
-  <si>
     <t>mandatory</t>
   </si>
   <si>
@@ -228,16 +219,13 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>Template-ID</t>
-  </si>
-  <si>
-    <t>Template title</t>
-  </si>
-  <si>
     <t>Time of creation</t>
   </si>
   <si>
     <t>WebsiteURL</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -357,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -553,7 +541,7 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -564,7 +552,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -577,7 +565,7 @@
       <right style="thick">
         <color rgb="FFFE6C36"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
@@ -593,7 +581,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -604,7 +592,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -617,57 +605,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -767,19 +705,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1263,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1297,38 +1222,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1338,89 +1259,89 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,29 +1350,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1528,94 +1440,6 @@
       <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1746,11 +1570,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1877,7 +1701,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2237,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,818 +2098,818 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="G3" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="O3" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="S3" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="82"/>
+      <c r="U3" s="83"/>
+      <c r="W3" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="G3" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="O3" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="S3" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="85"/>
-      <c r="W3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="88"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="58" t="s">
+      <c r="T5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="59" t="s">
+      <c r="U5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="58" t="s">
+      <c r="X5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="72"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="29"/>
-      <c r="G6" s="48"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="49"/>
-      <c r="O6" s="48"/>
+      <c r="M6" s="47"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="49"/>
-      <c r="S6" s="66"/>
+      <c r="Q6" s="47"/>
+      <c r="S6" s="64"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="65"/>
-      <c r="W6" s="66"/>
+      <c r="U6" s="63"/>
+      <c r="W6" s="64"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="65"/>
+      <c r="Y6" s="63"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="29"/>
-      <c r="G7" s="48" t="s">
-        <v>63</v>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="48"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="49"/>
-      <c r="O7" s="48"/>
+      <c r="M7" s="47"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="49"/>
-      <c r="S7" s="66"/>
+      <c r="Q7" s="47"/>
+      <c r="S7" s="64"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="65"/>
-      <c r="W7" s="66"/>
+      <c r="U7" s="63"/>
+      <c r="W7" s="64"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="65"/>
+      <c r="Y7" s="63"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="29"/>
-      <c r="G8" s="48" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="46" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="47" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="46" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="48"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="49"/>
-      <c r="S8" s="66"/>
+      <c r="Q8" s="47"/>
+      <c r="S8" s="64"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="65"/>
-      <c r="W8" s="66"/>
+      <c r="U8" s="63"/>
+      <c r="W8" s="64"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="65"/>
+      <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="74"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="30"/>
-      <c r="G9" s="50" t="s">
+      <c r="E9" s="28"/>
+      <c r="G9" s="48" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="50"/>
+      <c r="M9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="48"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="51"/>
-      <c r="S9" s="64" t="s">
+      <c r="Q9" s="49"/>
+      <c r="S9" s="62" t="s">
         <v>21</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="65" t="s">
+      <c r="U9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="64"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="65"/>
+      <c r="Y9" s="63"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="74"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="30"/>
-      <c r="G10" s="50" t="s">
+      <c r="E10" s="28"/>
+      <c r="G10" s="48" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="50"/>
+      <c r="M10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="48"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="51"/>
-      <c r="S10" s="66"/>
+      <c r="Q10" s="49"/>
+      <c r="S10" s="64"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="65"/>
-      <c r="W10" s="66"/>
+      <c r="U10" s="63"/>
+      <c r="W10" s="64"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="65"/>
+      <c r="Y10" s="63"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="74"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="30"/>
-      <c r="G11" s="50" t="s">
+      <c r="E11" s="28"/>
+      <c r="G11" s="48" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="48" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="50"/>
+      <c r="M11" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="48"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="51"/>
-      <c r="S11" s="66"/>
+      <c r="Q11" s="49"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="U11" s="63"/>
+      <c r="W11" s="64"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="65"/>
+      <c r="Y11" s="63"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="74"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="G12" s="50" t="s">
+      <c r="E12" s="28"/>
+      <c r="G12" s="48" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="50"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="51"/>
-      <c r="O12" s="50" t="s">
+      <c r="M12" s="49"/>
+      <c r="O12" s="48" t="s">
         <v>14</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="66"/>
+      <c r="Q12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="64"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="65"/>
-      <c r="W12" s="66"/>
+      <c r="U12" s="63"/>
+      <c r="W12" s="64"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="65"/>
+      <c r="Y12" s="63"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="74"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="30"/>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="28"/>
+      <c r="G13" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="48" t="s">
+      <c r="M13" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="66"/>
+        <v>62</v>
+      </c>
+      <c r="Q13" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="64"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="65"/>
-      <c r="W13" s="66"/>
+      <c r="U13" s="63"/>
+      <c r="W13" s="64"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="65"/>
+      <c r="Y13" s="63"/>
     </row>
-    <row r="14" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="G14" s="52" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="G14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="52" t="s">
+      <c r="I14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="52"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="51"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="68"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="68"/>
+      <c r="M14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="50"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="49"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="66"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="66"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="74"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="30"/>
-      <c r="G15" s="53" t="s">
+      <c r="E15" s="28"/>
+      <c r="G15" s="51" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="51" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="53" t="s">
+      <c r="M15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="51" t="s">
         <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="66"/>
+      <c r="Q15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="64"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="65"/>
-      <c r="W15" s="66"/>
+      <c r="U15" s="63"/>
+      <c r="W15" s="64"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="65"/>
+      <c r="Y15" s="63"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="74"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="30"/>
-      <c r="G16" s="50" t="s">
+      <c r="E16" s="28"/>
+      <c r="G16" s="48" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="50"/>
+      <c r="M16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="48"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="51"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="63"/>
-      <c r="W16" s="66"/>
+      <c r="Q16" s="49"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="61"/>
+      <c r="W16" s="64"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="65"/>
+      <c r="Y16" s="63"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="74"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="50" t="s">
+      <c r="E17" s="28"/>
+      <c r="G17" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="48" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="50" t="s">
+      <c r="M17" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="48" t="s">
         <v>2</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="66"/>
+      <c r="Q17" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="64"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="65"/>
-      <c r="W17" s="66"/>
+      <c r="U17" s="63"/>
+      <c r="W17" s="64"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="65"/>
+      <c r="Y17" s="63"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="74"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="30"/>
-      <c r="G18" s="50" t="s">
+      <c r="E18" s="28"/>
+      <c r="G18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="50" t="s">
+      <c r="M18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="66"/>
+      <c r="Q18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="64"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="65"/>
-      <c r="W18" s="66"/>
+      <c r="U18" s="63"/>
+      <c r="W18" s="64"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="65"/>
+      <c r="Y18" s="63"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="74"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="50" t="s">
+      <c r="E19" s="28"/>
+      <c r="G19" s="48" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="50" t="s">
+      <c r="M19" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="48" t="s">
         <v>9</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="66"/>
+      <c r="Q19" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="64"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="65"/>
-      <c r="W19" s="66"/>
+      <c r="U19" s="63"/>
+      <c r="W19" s="64"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="65"/>
+      <c r="Y19" s="63"/>
     </row>
-    <row r="20" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="G20" s="52" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="G20" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="52" t="s">
+      <c r="I20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="52" t="s">
+      <c r="M20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="68"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="68"/>
+      <c r="Q20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="65"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="66"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="66"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="74"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="G21" s="50" t="s">
+      <c r="E21" s="28"/>
+      <c r="G21" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="48" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="50" t="s">
+      <c r="M21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="48" t="s">
         <v>11</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="66"/>
+      <c r="Q21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="64"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="65"/>
-      <c r="W21" s="66"/>
+      <c r="U21" s="63"/>
+      <c r="W21" s="64"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="65"/>
+      <c r="Y21" s="63"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="74"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="30"/>
-      <c r="G22" s="48" t="s">
+      <c r="E22" s="28"/>
+      <c r="G22" s="46" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="49" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="49"/>
-      <c r="O22" s="48" t="s">
+      <c r="M22" s="47"/>
+      <c r="O22" s="46" t="s">
         <v>10</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="60"/>
+      <c r="Q22" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="58"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="61"/>
-      <c r="W22" s="60"/>
+      <c r="U22" s="59"/>
+      <c r="W22" s="58"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="61"/>
+      <c r="Y22" s="59"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="74"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="30"/>
-      <c r="G23" s="48"/>
+      <c r="E23" s="28"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="46" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="48"/>
+      <c r="M23" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="46"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="49"/>
-      <c r="S23" s="60"/>
+      <c r="Q23" s="47"/>
+      <c r="S23" s="58"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="61"/>
-      <c r="W23" s="60"/>
+      <c r="U23" s="59"/>
+      <c r="W23" s="58"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="61"/>
+      <c r="Y23" s="59"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="75"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="31"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="E24" s="29"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="71"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="71"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="69"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="69"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -3095,7 +2919,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -3106,333 +2930,279 @@
       <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="45" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="46" t="s">
+      <c r="P26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="57" t="s">
+      <c r="S26" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="58" t="s">
+      <c r="T26" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="59" t="s">
+      <c r="U26" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="W26" s="57" t="s">
+      <c r="W26" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="X26" s="58" t="s">
+      <c r="X26" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="59" t="s">
+      <c r="Y26" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="26"/>
-      <c r="G27" s="50"/>
+        <v>53</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="25"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="51"/>
-      <c r="K27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="51"/>
-      <c r="O27" s="50"/>
+      <c r="M27" s="49"/>
+      <c r="O27" s="48"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="51"/>
-      <c r="S27" s="66"/>
+      <c r="Q27" s="49"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="65"/>
-      <c r="W27" s="66"/>
+      <c r="U27" s="63"/>
+      <c r="W27" s="64"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="65"/>
+      <c r="Y27" s="63"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="27"/>
-      <c r="G28" s="50"/>
+      <c r="A28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="25"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="51"/>
-      <c r="K28" s="50"/>
+      <c r="I28" s="49"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="51"/>
-      <c r="O28" s="50"/>
+      <c r="M28" s="49"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="51"/>
-      <c r="S28" s="66"/>
+      <c r="Q28" s="49"/>
+      <c r="S28" s="64"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="65"/>
-      <c r="W28" s="66"/>
+      <c r="U28" s="63"/>
+      <c r="W28" s="64"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="65"/>
+      <c r="Y28" s="63"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="27"/>
-      <c r="G29" s="50"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="25"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="51"/>
-      <c r="K29" s="50"/>
+      <c r="I29" s="49"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="51"/>
-      <c r="O29" s="50"/>
+      <c r="M29" s="49"/>
+      <c r="O29" s="48"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="51"/>
-      <c r="S29" s="66"/>
+      <c r="Q29" s="49"/>
+      <c r="S29" s="64"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="65"/>
-      <c r="W29" s="66"/>
+      <c r="U29" s="63"/>
+      <c r="W29" s="64"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="65"/>
+      <c r="Y29" s="63"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="27"/>
-      <c r="G30" s="50"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="25"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="51"/>
-      <c r="K30" s="50"/>
+      <c r="I30" s="49"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="51"/>
-      <c r="O30" s="50"/>
+      <c r="M30" s="49"/>
+      <c r="O30" s="48"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="51"/>
-      <c r="S30" s="66"/>
+      <c r="Q30" s="49"/>
+      <c r="S30" s="64"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="65"/>
-      <c r="W30" s="66"/>
+      <c r="U30" s="63"/>
+      <c r="W30" s="64"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="65"/>
+      <c r="Y30" s="63"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="27"/>
-      <c r="G31" s="50"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="25"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="51"/>
-      <c r="K31" s="50"/>
+      <c r="I31" s="49"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="51"/>
-      <c r="O31" s="50"/>
+      <c r="M31" s="49"/>
+      <c r="O31" s="48"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="51"/>
-      <c r="S31" s="66"/>
+      <c r="Q31" s="49"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="65"/>
-      <c r="W31" s="66"/>
+      <c r="U31" s="63"/>
+      <c r="W31" s="64"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="65"/>
+      <c r="Y31" s="63"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="27"/>
-      <c r="G32" s="50"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="25"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="51"/>
-      <c r="K32" s="50"/>
+      <c r="I32" s="49"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="51"/>
-      <c r="O32" s="50"/>
+      <c r="M32" s="49"/>
+      <c r="O32" s="48"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="51"/>
-      <c r="S32" s="66"/>
+      <c r="Q32" s="49"/>
+      <c r="S32" s="64"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="65"/>
-      <c r="W32" s="66"/>
+      <c r="U32" s="63"/>
+      <c r="W32" s="64"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="65"/>
+      <c r="Y32" s="63"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="27"/>
-      <c r="G33" s="50"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="25"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="51"/>
-      <c r="K33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="51"/>
-      <c r="O33" s="50"/>
+      <c r="M33" s="49"/>
+      <c r="O33" s="48"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="51"/>
-      <c r="S33" s="66"/>
+      <c r="Q33" s="49"/>
+      <c r="S33" s="64"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="65"/>
-      <c r="W33" s="66"/>
+      <c r="U33" s="63"/>
+      <c r="W33" s="64"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="65"/>
+      <c r="Y33" s="63"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="27"/>
-      <c r="G34" s="50"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="25"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="51"/>
-      <c r="K34" s="50"/>
+      <c r="I34" s="49"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="51"/>
-      <c r="O34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="O34" s="48"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="51"/>
-      <c r="S34" s="66"/>
+      <c r="Q34" s="49"/>
+      <c r="S34" s="64"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="65"/>
-      <c r="W34" s="66"/>
+      <c r="U34" s="63"/>
+      <c r="W34" s="64"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="65"/>
+      <c r="Y34" s="63"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="27"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="51"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="51"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="51"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="65"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="65"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="26"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="69"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="69"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="27"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="51"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="51"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="51"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="65"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="65"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="28"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="56"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="71"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="71"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S25:Y37 S3:Y24" name="customEntities"/>
-    <protectedRange sqref="A27:A31" name="Questionnaire_3"/>
+    <protectedRange sqref="S3:Y24 S25:Y35" name="customEntities"/>
+    <protectedRange sqref="A27:A29" name="Questionnaire_3"/>
     <protectedRange sqref="B9:B12" name="Contact Fields_2"/>
-    <protectedRange sqref="A32:Y37 E27:Y31" name="Questionnaire"/>
+    <protectedRange sqref="A30:Y35 E27:Y29" name="Questionnaire"/>
     <protectedRange sqref="A24:Y24 B23:Y23 B13:H22 C9:H12 A6:Y8 I9:Y22" name="Contact Fields"/>
-    <protectedRange sqref="B27:D31" name="Questionnaire_2"/>
+    <protectedRange sqref="B27:D29" name="Questionnaire_2"/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
@@ -3441,50 +3211,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 M12:P22 M9:AG11 R12:AG22 W6:Y8 A24:AG24">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="17" priority="29">
+  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
+    <cfRule type="expression" dxfId="9" priority="29">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="15" priority="27">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="13" priority="25">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="11" priority="23">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="9" priority="21">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3524,7 +3262,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 Y27:Y37 U27:U36 U37 U6:U24 Q6:Q24 Q27:Q37 M27:M37 M6:M24 I6:I24 I27:I37" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 U6:U24 Q6:Q24 M6:M24 I6:I24 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{A9584112-7768-4B1D-B7B8-C94A513C1665}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
